--- a/public/files/cars/cars-export.xlsx
+++ b/public/files/cars/cars-export.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -29,6 +29,18 @@
     <t>Modelo</t>
   </si>
   <si>
+    <t>Marca</t>
+  </si>
+  <si>
+    <t>Combustible</t>
+  </si>
+  <si>
+    <t>Línea</t>
+  </si>
+  <si>
+    <t>Tipo de Servicio</t>
+  </si>
+  <si>
     <t>Estado</t>
   </si>
   <si>
@@ -38,13 +50,127 @@
     <t>VMX324</t>
   </si>
   <si>
+    <t>Chevrolet</t>
+  </si>
+  <si>
+    <t>Diesel Premium</t>
+  </si>
+  <si>
+    <t>QP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transporte </t>
+  </si>
+  <si>
+    <t>Inactivo</t>
+  </si>
+  <si>
+    <t>CAMIONETA</t>
+  </si>
+  <si>
+    <t>TSS547</t>
+  </si>
+  <si>
     <t>Activo</t>
   </si>
   <si>
-    <t>CAMIONETA</t>
-  </si>
-  <si>
-    <t>TSS547</t>
+    <t>GUQ918</t>
+  </si>
+  <si>
+    <t>GEV101</t>
+  </si>
+  <si>
+    <t>BUSETA</t>
+  </si>
+  <si>
+    <t>SXD370</t>
+  </si>
+  <si>
+    <t>TSS520</t>
+  </si>
+  <si>
+    <t>TSS518</t>
+  </si>
+  <si>
+    <t>TSS552</t>
+  </si>
+  <si>
+    <t>GEU189</t>
+  </si>
+  <si>
+    <t>GEV031</t>
+  </si>
+  <si>
+    <t>GUQ925</t>
+  </si>
+  <si>
+    <t>WDR783</t>
+  </si>
+  <si>
+    <t>WDS150</t>
+  </si>
+  <si>
+    <t>TSS582</t>
+  </si>
+  <si>
+    <t>SKZ495</t>
+  </si>
+  <si>
+    <t>TSS472</t>
+  </si>
+  <si>
+    <t>TFX278</t>
+  </si>
+  <si>
+    <t>WFV582</t>
+  </si>
+  <si>
+    <t>WFT329</t>
+  </si>
+  <si>
+    <t>WGU769</t>
+  </si>
+  <si>
+    <t>WDS186</t>
+  </si>
+  <si>
+    <t>ERL863</t>
+  </si>
+  <si>
+    <t>WDQ354</t>
+  </si>
+  <si>
+    <t>WFU977</t>
+  </si>
+  <si>
+    <t>TSS364</t>
+  </si>
+  <si>
+    <t>TDY225</t>
+  </si>
+  <si>
+    <t>WDT392</t>
+  </si>
+  <si>
+    <t>EXX415</t>
+  </si>
+  <si>
+    <t>TSS452</t>
+  </si>
+  <si>
+    <t>JOU444</t>
+  </si>
+  <si>
+    <t>EXZ078</t>
+  </si>
+  <si>
+    <t>GES671</t>
+  </si>
+  <si>
+    <t>GUU518</t>
+  </si>
+  <si>
+    <t>THW212</t>
   </si>
 </sst>
 </file>
@@ -383,7 +509,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,7 +517,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,39 +533,739 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>1991</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>2020</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4">
+        <v>2020</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>2020</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>2019</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>2019</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>2019</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>2019</v>
+      </c>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>2019</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>2019</v>
+      </c>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>2019</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13">
+        <v>2019</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>2019</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>2019</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>2019</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17">
+        <v>2019</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18">
+        <v>2019</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19">
+        <v>2019</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20">
+        <v>2019</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21">
+        <v>2019</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22">
+        <v>2019</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>26</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23">
+        <v>2019</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24">
+        <v>2019</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>28</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25">
+        <v>2019</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26">
+        <v>2019</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>30</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27">
+        <v>2019</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28">
+        <v>2019</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29">
+        <v>2019</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30">
+        <v>2019</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31">
+        <v>2019</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32">
+        <v>2019</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33">
+        <v>2019</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34">
+        <v>2019</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35">
+        <v>2019</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/public/files/cars/cars-export.xlsx
+++ b/public/files/cars/cars-export.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
   <si>
     <t>ID</t>
   </si>
@@ -41,6 +41,51 @@
     <t>Tipo de Servicio</t>
   </si>
   <si>
+    <t>Número Interno</t>
+  </si>
+  <si>
+    <t>Tipo de Relación</t>
+  </si>
+  <si>
+    <t>Cilindraje</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Servicio</t>
+  </si>
+  <si>
+    <t>Tipo de Carrocería</t>
+  </si>
+  <si>
+    <t>Número de Puertas</t>
+  </si>
+  <si>
+    <t>Número de Motor</t>
+  </si>
+  <si>
+    <t>Vin</t>
+  </si>
+  <si>
+    <t>Número de serie</t>
+  </si>
+  <si>
+    <t>Toneladas Carga</t>
+  </si>
+  <si>
+    <t>Número de Chasis</t>
+  </si>
+  <si>
+    <t>Fecha de Matricula</t>
+  </si>
+  <si>
+    <t>Kilometros para cambio de aceite</t>
+  </si>
+  <si>
+    <t>Propietario</t>
+  </si>
+  <si>
     <t>Estado</t>
   </si>
   <si>
@@ -50,54 +95,69 @@
     <t>VMX324</t>
   </si>
   <si>
-    <t>Chevrolet</t>
+    <t>CHEVROLET</t>
   </si>
   <si>
     <t>Diesel Premium</t>
   </si>
   <si>
-    <t>QP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transporte </t>
+    <t>FORD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transporte Especial </t>
+  </si>
+  <si>
+    <t>Activo</t>
+  </si>
+  <si>
+    <t>CAMIONETA</t>
+  </si>
+  <si>
+    <t>TSS547</t>
+  </si>
+  <si>
+    <t>RANGER</t>
+  </si>
+  <si>
+    <t>GUQ918</t>
+  </si>
+  <si>
+    <t>GEV101</t>
+  </si>
+  <si>
+    <t>BUSETA</t>
+  </si>
+  <si>
+    <t>SXD370</t>
+  </si>
+  <si>
+    <t>TSS520</t>
+  </si>
+  <si>
+    <t>TOYOTA</t>
+  </si>
+  <si>
+    <t>HILUX</t>
+  </si>
+  <si>
+    <t>TSS518</t>
+  </si>
+  <si>
+    <t>TSS552</t>
   </si>
   <si>
     <t>Inactivo</t>
   </si>
   <si>
-    <t>CAMIONETA</t>
-  </si>
-  <si>
-    <t>TSS547</t>
-  </si>
-  <si>
-    <t>Activo</t>
-  </si>
-  <si>
-    <t>GUQ918</t>
-  </si>
-  <si>
-    <t>GEV101</t>
-  </si>
-  <si>
-    <t>BUSETA</t>
-  </si>
-  <si>
-    <t>SXD370</t>
-  </si>
-  <si>
-    <t>TSS520</t>
-  </si>
-  <si>
-    <t>TSS518</t>
-  </si>
-  <si>
-    <t>TSS552</t>
-  </si>
-  <si>
     <t>GEU189</t>
   </si>
   <si>
+    <t>RENAULT</t>
+  </si>
+  <si>
+    <t>ALASKAN</t>
+  </si>
+  <si>
     <t>GEV031</t>
   </si>
   <si>
@@ -171,6 +231,36 @@
   </si>
   <si>
     <t>THW212</t>
+  </si>
+  <si>
+    <t>XTQ999</t>
+  </si>
+  <si>
+    <t>VHX324</t>
+  </si>
+  <si>
+    <t>BUS</t>
+  </si>
+  <si>
+    <t>CCC000</t>
+  </si>
+  <si>
+    <t>VEHÍCULO AFILIADO</t>
+  </si>
+  <si>
+    <t>azul</t>
+  </si>
+  <si>
+    <t>PARTICULAR</t>
+  </si>
+  <si>
+    <t>desconocida</t>
+  </si>
+  <si>
+    <t>2020-01-01</t>
+  </si>
+  <si>
+    <t>mario</t>
   </si>
 </sst>
 </file>
@@ -509,7 +599,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:X38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,7 +607,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:24">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -545,66 +635,149 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>1991</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>2020</v>
-      </c>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>2019</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="Q3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>2020</v>
@@ -613,19 +786,34 @@
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>2020</v>
@@ -634,19 +822,34 @@
       <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D6">
         <v>2019</v>
@@ -655,40 +858,78 @@
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D7">
         <v>2019</v>
       </c>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8">
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D8">
         <v>2019</v>
@@ -697,103 +938,210 @@
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9">
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D9">
         <v>2019</v>
       </c>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10">
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D10">
-        <v>2019</v>
-      </c>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>2020</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11">
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11">
+        <v>2020</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
         <v>27</v>
       </c>
-      <c r="D11">
-        <v>2019</v>
-      </c>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11"/>
+      <c r="R11"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12">
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D12">
-        <v>2019</v>
-      </c>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>2020</v>
+      </c>
+      <c r="E12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13">
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D13">
         <v>2019</v>
@@ -802,19 +1150,34 @@
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
-      <c r="I13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14">
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D14">
         <v>2019</v>
@@ -823,19 +1186,34 @@
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
-      <c r="I14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15">
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D15">
         <v>2019</v>
@@ -844,19 +1222,34 @@
       <c r="F15"/>
       <c r="G15"/>
       <c r="H15"/>
-      <c r="I15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16">
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D16">
         <v>2019</v>
@@ -865,19 +1258,34 @@
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16"/>
-      <c r="I16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17">
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D17">
         <v>2019</v>
@@ -886,19 +1294,34 @@
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17"/>
-      <c r="I17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18">
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="D18">
         <v>2019</v>
@@ -907,19 +1330,34 @@
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18"/>
-      <c r="I18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19">
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="D19">
         <v>2019</v>
@@ -928,19 +1366,34 @@
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
-      <c r="I19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20">
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D20">
         <v>2019</v>
@@ -949,19 +1402,34 @@
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20"/>
-      <c r="I20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21">
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D21">
         <v>2019</v>
@@ -970,19 +1438,34 @@
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
-      <c r="I21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22">
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="D22">
         <v>2019</v>
@@ -991,19 +1474,34 @@
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
-      <c r="I22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23">
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D23">
         <v>2019</v>
@@ -1012,19 +1510,34 @@
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23"/>
-      <c r="I23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24">
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D24">
         <v>2019</v>
@@ -1033,19 +1546,34 @@
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
-      <c r="I24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25">
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D25">
         <v>2019</v>
@@ -1054,19 +1582,34 @@
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
-      <c r="I25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26">
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D26">
         <v>2019</v>
@@ -1075,19 +1618,34 @@
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
-      <c r="I26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27">
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D27">
         <v>2019</v>
@@ -1096,19 +1654,34 @@
       <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
-      <c r="I27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28">
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="D28">
         <v>2019</v>
@@ -1117,19 +1690,34 @@
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
-      <c r="I28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24">
       <c r="A29">
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D29">
         <v>2019</v>
@@ -1138,19 +1726,34 @@
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
-      <c r="I29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30">
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D30">
         <v>2019</v>
@@ -1159,19 +1762,34 @@
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
-      <c r="I30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31">
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="D31">
         <v>2019</v>
@@ -1180,19 +1798,34 @@
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31"/>
-      <c r="I31" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32">
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="D32">
         <v>2019</v>
@@ -1201,19 +1834,34 @@
       <c r="F32"/>
       <c r="G32"/>
       <c r="H32"/>
-      <c r="I32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33">
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D33">
         <v>2019</v>
@@ -1222,19 +1870,34 @@
       <c r="F33"/>
       <c r="G33"/>
       <c r="H33"/>
-      <c r="I33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34">
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D34">
         <v>2019</v>
@@ -1243,19 +1906,34 @@
       <c r="F34"/>
       <c r="G34"/>
       <c r="H34"/>
-      <c r="I34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35">
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="D35">
         <v>2019</v>
@@ -1264,8 +1942,185 @@
       <c r="F35"/>
       <c r="G35"/>
       <c r="H35"/>
-      <c r="I35" t="s">
-        <v>18</v>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24">
+      <c r="A36">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36">
+        <v>2019</v>
+      </c>
+      <c r="E36" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24">
+      <c r="A37">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37">
+        <v>2001</v>
+      </c>
+      <c r="E37" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" t="s">
+        <v>29</v>
+      </c>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
+      <c r="A38">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38">
+        <v>1901</v>
+      </c>
+      <c r="E38" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H38" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38">
+        <v>9</v>
+      </c>
+      <c r="J38" t="s">
+        <v>76</v>
+      </c>
+      <c r="K38">
+        <v>1200</v>
+      </c>
+      <c r="L38" t="s">
+        <v>77</v>
+      </c>
+      <c r="M38" t="s">
+        <v>78</v>
+      </c>
+      <c r="N38" t="s">
+        <v>79</v>
+      </c>
+      <c r="O38">
+        <v>4</v>
+      </c>
+      <c r="P38">
+        <v>267890</v>
+      </c>
+      <c r="Q38">
+        <v>100</v>
+      </c>
+      <c r="R38">
+        <v>4567890</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+      <c r="T38">
+        <v>1876567</v>
+      </c>
+      <c r="U38" t="s">
+        <v>80</v>
+      </c>
+      <c r="V38">
+        <v>5000</v>
+      </c>
+      <c r="W38" t="s">
+        <v>81</v>
+      </c>
+      <c r="X38" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/public/files/cars/cars-export.xlsx
+++ b/public/files/cars/cars-export.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="330">
   <si>
     <t>ID</t>
   </si>
@@ -98,7 +98,7 @@
     <t>CHEVROLET</t>
   </si>
   <si>
-    <t>Diesel Premium</t>
+    <t>DIESEL</t>
   </si>
   <si>
     <t>FORD</t>
@@ -119,33 +119,141 @@
     <t>RANGER</t>
   </si>
   <si>
+    <t>PUBLICO</t>
+  </si>
+  <si>
+    <t>VEHÍCULO PROPIO</t>
+  </si>
+  <si>
+    <t>BLANCO ARTICO</t>
+  </si>
+  <si>
+    <t>DOBLE CABINA</t>
+  </si>
+  <si>
+    <t>SA2PKJ133527</t>
+  </si>
+  <si>
+    <t>8AFAR23LXKJ133527</t>
+  </si>
+  <si>
+    <t>2019-04-25</t>
+  </si>
+  <si>
+    <t>JESUS EDUARDO ALDANA ROJAS</t>
+  </si>
+  <si>
     <t>GUQ918</t>
   </si>
   <si>
+    <t>TOYOTA</t>
+  </si>
+  <si>
+    <t>HILUX</t>
+  </si>
+  <si>
+    <t>CONVENIO EMPRESARIAL</t>
+  </si>
+  <si>
+    <t>SUPER BLANCO</t>
+  </si>
+  <si>
+    <t>2GD-4693933</t>
+  </si>
+  <si>
+    <t>8AJKB3CD2L1618744</t>
+  </si>
+  <si>
+    <t>2019-11-05</t>
+  </si>
+  <si>
+    <t>ANCIZAR GUZMAN RENGIFO</t>
+  </si>
+  <si>
     <t>GEV101</t>
   </si>
   <si>
+    <t>BLANCO</t>
+  </si>
+  <si>
+    <t>PARTICULAR</t>
+  </si>
+  <si>
+    <t>2GD-0663721</t>
+  </si>
+  <si>
+    <t>8AJKB3CD1L1618458</t>
+  </si>
+  <si>
+    <t>2019-10-04</t>
+  </si>
+  <si>
+    <t>EVANGELINA VARGAS MORENO</t>
+  </si>
+  <si>
     <t>BUSETA</t>
   </si>
   <si>
     <t>SXD370</t>
   </si>
   <si>
+    <t>VOLKSWAGEN</t>
+  </si>
+  <si>
+    <t>CRAFTER 50</t>
+  </si>
+  <si>
+    <t>BLANCO CANDY</t>
+  </si>
+  <si>
+    <t>CERRADA</t>
+  </si>
+  <si>
+    <t>CKU039876</t>
+  </si>
+  <si>
+    <t>WV1ZZZ2EZE6003638</t>
+  </si>
+  <si>
+    <t>2014-09-03</t>
+  </si>
+  <si>
     <t>TSS520</t>
   </si>
   <si>
-    <t>TOYOTA</t>
-  </si>
-  <si>
-    <t>HILUX</t>
+    <t>2GD-4574532</t>
+  </si>
+  <si>
+    <t>8AJKB8CD6K1679042</t>
+  </si>
+  <si>
+    <t>2019-03-07</t>
   </si>
   <si>
     <t>TSS518</t>
   </si>
   <si>
+    <t>2GD-4588757</t>
+  </si>
+  <si>
+    <t>8AJKB8CD2K1679474</t>
+  </si>
+  <si>
+    <t>2019-03-01</t>
+  </si>
+  <si>
     <t>TSS552</t>
   </si>
   <si>
+    <t>SA2PKJ133490</t>
+  </si>
+  <si>
+    <t>8AFAR23L2KJ133490</t>
+  </si>
+  <si>
+    <t>2019-04-26</t>
+  </si>
+  <si>
     <t>Inactivo</t>
   </si>
   <si>
@@ -158,45 +266,183 @@
     <t>ALASKAN</t>
   </si>
   <si>
+    <t>BLANCO HIELO</t>
+  </si>
+  <si>
+    <t>YD25701048P</t>
+  </si>
+  <si>
+    <t>3BRCD33B1LK590035</t>
+  </si>
+  <si>
+    <t>2019-10-10</t>
+  </si>
+  <si>
     <t>GEV031</t>
   </si>
   <si>
+    <t>YD25700997P</t>
+  </si>
+  <si>
+    <t>3BRCD33B5LK590068</t>
+  </si>
+  <si>
+    <t>PORTRANS SAS</t>
+  </si>
+  <si>
     <t>GUQ925</t>
   </si>
   <si>
+    <t>8AJKB3CD2L1618789</t>
+  </si>
+  <si>
+    <t>2019-11-15</t>
+  </si>
+  <si>
     <t>WDR783</t>
   </si>
   <si>
     <t>WDS150</t>
   </si>
   <si>
+    <t>SA2QOJ160316</t>
+  </si>
+  <si>
+    <t>8AFAR23L9LJ160316</t>
+  </si>
+  <si>
+    <t>2019-10-16</t>
+  </si>
+  <si>
+    <t>JANETH PENAGOS GARCIA</t>
+  </si>
+  <si>
     <t>TSS582</t>
   </si>
   <si>
+    <t>2GD-4733307</t>
+  </si>
+  <si>
+    <t>8AJKB3CDXL1620323</t>
+  </si>
+  <si>
+    <t>2020-02-03</t>
+  </si>
+  <si>
+    <t>JUAN FRANCISCO BECERRA CANO</t>
+  </si>
+  <si>
+    <t>MICROBUS</t>
+  </si>
+  <si>
     <t>SKZ495</t>
   </si>
   <si>
+    <t>BJM035253</t>
+  </si>
+  <si>
+    <t>WV1ZZZ2EZC6001126</t>
+  </si>
+  <si>
+    <t>2018-10-28</t>
+  </si>
+  <si>
     <t>TSS472</t>
   </si>
   <si>
+    <t>MITSUBISHI</t>
+  </si>
+  <si>
+    <t>L200 2.5</t>
+  </si>
+  <si>
+    <t>BLANCO PERLA</t>
+  </si>
+  <si>
+    <t>4D56UAV2383</t>
+  </si>
+  <si>
+    <t>MMBJNKL30KH004951</t>
+  </si>
+  <si>
+    <t>2019-01-08</t>
+  </si>
+  <si>
+    <t>MARIA VIRGELINA PATIÑO MURILLO</t>
+  </si>
+  <si>
     <t>TFX278</t>
   </si>
   <si>
     <t>WFV582</t>
   </si>
   <si>
+    <t>NPR</t>
+  </si>
+  <si>
+    <t>BLANCOI VERDE</t>
+  </si>
+  <si>
+    <t>4HK1-221289</t>
+  </si>
+  <si>
+    <t>9GCNPR752F8007425</t>
+  </si>
+  <si>
+    <t>2014-09-04</t>
+  </si>
+  <si>
+    <t>WILLIAM ALEXIS PORRAS ABUTISTA</t>
+  </si>
+  <si>
     <t>WFT329</t>
   </si>
   <si>
     <t>WGU769</t>
   </si>
   <si>
+    <t>JAC</t>
+  </si>
+  <si>
+    <t>HFC6500KR3T</t>
+  </si>
+  <si>
+    <t>E4035575</t>
+  </si>
+  <si>
+    <t>LJ16AA3C0F7000692</t>
+  </si>
+  <si>
+    <t>2014-12-22</t>
+  </si>
+  <si>
+    <t>CARLOS ALONSO BASTO PARRADO</t>
+  </si>
+  <si>
     <t>WDS186</t>
   </si>
   <si>
+    <t>YD25706240P</t>
+  </si>
+  <si>
+    <t>3BRCD33BXLK590180</t>
+  </si>
+  <si>
+    <t>2019-12-04</t>
+  </si>
+  <si>
     <t>ERL863</t>
   </si>
   <si>
+    <t>SA2PKJ087828</t>
+  </si>
+  <si>
+    <t>8AFAR23L1KJ087828</t>
+  </si>
+  <si>
+    <t>2018-09-27</t>
+  </si>
+  <si>
     <t>WDQ354</t>
   </si>
   <si>
@@ -209,6 +455,21 @@
     <t>TDY225</t>
   </si>
   <si>
+    <t>BLANCO VERDE</t>
+  </si>
+  <si>
+    <t>4HK1-073447</t>
+  </si>
+  <si>
+    <t>9GCNPR752EB002109</t>
+  </si>
+  <si>
+    <t>2013-04-30</t>
+  </si>
+  <si>
+    <t>MONICA LILIANA CAMARGO RIOS</t>
+  </si>
+  <si>
     <t>WDT392</t>
   </si>
   <si>
@@ -221,46 +482,529 @@
     <t>JOU444</t>
   </si>
   <si>
+    <t>2GD-4792975</t>
+  </si>
+  <si>
+    <t>8AJKB3CD3L1622589</t>
+  </si>
+  <si>
+    <t>2020-05-24</t>
+  </si>
+  <si>
     <t>EXZ078</t>
   </si>
   <si>
+    <t>SA2P KJ087759</t>
+  </si>
+  <si>
+    <t>8AFAR23L8KJ087759</t>
+  </si>
+  <si>
+    <t>SERGIO ANDRES BELTRAN BEJARANO</t>
+  </si>
+  <si>
     <t>GES671</t>
   </si>
   <si>
     <t>GUU518</t>
   </si>
   <si>
+    <t>MERCEDES BENZ</t>
+  </si>
+  <si>
+    <t>SPRINTER 515 CDI</t>
+  </si>
+  <si>
+    <t>651955W0102952</t>
+  </si>
+  <si>
+    <t>8AC906657LE177148</t>
+  </si>
+  <si>
+    <t>2020-01-30</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO PULIDO SALAMANCA</t>
+  </si>
+  <si>
     <t>THW212</t>
   </si>
   <si>
     <t>XTQ999</t>
   </si>
   <si>
-    <t>VHX324</t>
+    <t>GSM136</t>
+  </si>
+  <si>
+    <t>651955W0103941</t>
+  </si>
+  <si>
+    <t>8AC906657LE177519</t>
+  </si>
+  <si>
+    <t>2020-01-14</t>
+  </si>
+  <si>
+    <t>ALEX FERNANDO VARELA GUTIERREZ</t>
+  </si>
+  <si>
+    <t>TSS369</t>
+  </si>
+  <si>
+    <t>A2917001584</t>
+  </si>
+  <si>
+    <t>LJ11PABD5JC091008</t>
+  </si>
+  <si>
+    <t>2018-04-13</t>
+  </si>
+  <si>
+    <t>ALVARO SANMIGUEL RENJIFO</t>
   </si>
   <si>
     <t>BUS</t>
   </si>
   <si>
-    <t>CCC000</t>
+    <t>AAA001</t>
   </si>
   <si>
     <t>VEHÍCULO AFILIADO</t>
   </si>
   <si>
-    <t>azul</t>
-  </si>
-  <si>
-    <t>PARTICULAR</t>
+    <t>blanco</t>
   </si>
   <si>
     <t>desconocida</t>
   </si>
   <si>
-    <t>2020-01-01</t>
-  </si>
-  <si>
-    <t>mario</t>
+    <t>110SN1HJJH1</t>
+  </si>
+  <si>
+    <t>SXJNMW123</t>
+  </si>
+  <si>
+    <t>2021-01-01</t>
+  </si>
+  <si>
+    <t>GEV080</t>
+  </si>
+  <si>
+    <t>2GD-4687919</t>
+  </si>
+  <si>
+    <t>8AJKB3CD1L1618489</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>YERSON HUMERTO GIRALDO CASTILLO</t>
+  </si>
+  <si>
+    <t>WDS059</t>
+  </si>
+  <si>
+    <t>AMAROK TRENDLINE</t>
+  </si>
+  <si>
+    <t>CNF108014</t>
+  </si>
+  <si>
+    <t>WV1ZZZ2HZKA013741</t>
+  </si>
+  <si>
+    <t>2019-06-18</t>
+  </si>
+  <si>
+    <t>EFRAIN ROJAS BERMUDEZ</t>
+  </si>
+  <si>
+    <t>WOZ011</t>
+  </si>
+  <si>
+    <t>BLANCO GACIAL</t>
+  </si>
+  <si>
+    <t>M9TC678C025310</t>
+  </si>
+  <si>
+    <t>93YMAF4CEHJ371436</t>
+  </si>
+  <si>
+    <t>2017-03-24</t>
+  </si>
+  <si>
+    <t>ANA ELPIDIA CANTOR LEGUIZAMO</t>
+  </si>
+  <si>
+    <t>WOO378</t>
+  </si>
+  <si>
+    <t>N04CUV34988</t>
+  </si>
+  <si>
+    <t>9F3UCP0H6L3104307</t>
+  </si>
+  <si>
+    <t>2019-11-01</t>
+  </si>
+  <si>
+    <t>JAIRO CUELLAR MENESES</t>
+  </si>
+  <si>
+    <t>EYY169</t>
+  </si>
+  <si>
+    <t>4HK1-721010</t>
+  </si>
+  <si>
+    <t>9GCFRR909KB009549</t>
+  </si>
+  <si>
+    <t>2019-03-15</t>
+  </si>
+  <si>
+    <t>BANCO DE BOGOTA</t>
+  </si>
+  <si>
+    <t>WDR817</t>
+  </si>
+  <si>
+    <t>2GD-4504408</t>
+  </si>
+  <si>
+    <t>BAJKB8CD6K1676383</t>
+  </si>
+  <si>
+    <t>2018-09-26</t>
+  </si>
+  <si>
+    <t>HECTOR JAIME CUBIDES LANDINO</t>
+  </si>
+  <si>
+    <t>WCS766</t>
+  </si>
+  <si>
+    <t>SPRINTER 415 CDI</t>
+  </si>
+  <si>
+    <t>4HK1-076414</t>
+  </si>
+  <si>
+    <t>9GCFRR904EB002595</t>
+  </si>
+  <si>
+    <t>2013-09-07</t>
+  </si>
+  <si>
+    <t>HECTOR JOSELO CASASBUENAS</t>
+  </si>
+  <si>
+    <t>TAZ901</t>
+  </si>
+  <si>
+    <t>BLANCO GLACIAL</t>
+  </si>
+  <si>
+    <t>M9TC678C016808</t>
+  </si>
+  <si>
+    <t>93YMAF4CEFJ671096</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>MARTHA EDITH MONTAÑA TORRES</t>
+  </si>
+  <si>
+    <t>GEU802</t>
+  </si>
+  <si>
+    <t>2GD-0673370</t>
+  </si>
+  <si>
+    <t>8AJKB3CD7L1618206</t>
+  </si>
+  <si>
+    <t>2019-09-13</t>
+  </si>
+  <si>
+    <t>WDS338</t>
+  </si>
+  <si>
+    <t>MSTC678C031637</t>
+  </si>
+  <si>
+    <t>93YMAF4CEMJ431427</t>
+  </si>
+  <si>
+    <t>2020-07-28</t>
+  </si>
+  <si>
+    <t>WDR595</t>
+  </si>
+  <si>
+    <t>SA2PJJ026450</t>
+  </si>
+  <si>
+    <t>8AFAR23L5JJ026450</t>
+  </si>
+  <si>
+    <t>2017-12-14</t>
+  </si>
+  <si>
+    <t>DEISY ZULAY PINTO MENDOZA</t>
+  </si>
+  <si>
+    <t>WLT230</t>
+  </si>
+  <si>
+    <t>M9TC678C030795</t>
+  </si>
+  <si>
+    <t>93YMAF4CELJ915491</t>
+  </si>
+  <si>
+    <t>2019-07-29</t>
+  </si>
+  <si>
+    <t>HUMBERTO ARDILA BOTERO</t>
+  </si>
+  <si>
+    <t>WEO809</t>
+  </si>
+  <si>
+    <t>DK4B064137</t>
+  </si>
+  <si>
+    <t>LSYHKAAE1EK024137</t>
+  </si>
+  <si>
+    <t>2013-12-09</t>
+  </si>
+  <si>
+    <t>LUIS ALFONSO RUIZ RINCON</t>
+  </si>
+  <si>
+    <t>WDS169</t>
+  </si>
+  <si>
+    <t>SA2QLJ160318</t>
+  </si>
+  <si>
+    <t>BAFAR23L2LJ160318</t>
+  </si>
+  <si>
+    <t>2019-10-18</t>
+  </si>
+  <si>
+    <t>TFW957</t>
+  </si>
+  <si>
+    <t>HYUNDAY</t>
+  </si>
+  <si>
+    <t>D4DDEJ577971</t>
+  </si>
+  <si>
+    <t>KMJHG17PPFC064921</t>
+  </si>
+  <si>
+    <t>2015-01-27</t>
+  </si>
+  <si>
+    <t>NELSON ISIDRO GONZALEZ WALTEROS</t>
+  </si>
+  <si>
+    <t>SSR080</t>
+  </si>
+  <si>
+    <t>F26D47</t>
+  </si>
+  <si>
+    <t>4HK1-OCH430</t>
+  </si>
+  <si>
+    <t>9GCFRR902MB000407</t>
+  </si>
+  <si>
+    <t>2020-10-14</t>
+  </si>
+  <si>
+    <t>WDT677</t>
+  </si>
+  <si>
+    <t>SA2QLJ160340</t>
+  </si>
+  <si>
+    <t>BAFAR23L6LJ160340</t>
+  </si>
+  <si>
+    <t>0020-12-17</t>
+  </si>
+  <si>
+    <t>SOS886</t>
+  </si>
+  <si>
+    <t>HINO</t>
+  </si>
+  <si>
+    <t>FC9JLTZ</t>
+  </si>
+  <si>
+    <t>J05ETY10399</t>
+  </si>
+  <si>
+    <t>9F3FC9JLTFXX10109</t>
+  </si>
+  <si>
+    <t>2014-06-12</t>
+  </si>
+  <si>
+    <t>JOSE NIUBALDO CHAVEZ NARANJO</t>
+  </si>
+  <si>
+    <t>SVD963</t>
+  </si>
+  <si>
+    <t>D4DDD535033</t>
+  </si>
+  <si>
+    <t>KMJHG17PPEC059566</t>
+  </si>
+  <si>
+    <t>2013-09-03</t>
+  </si>
+  <si>
+    <t>PUENTES ESPINOZA JOSE RAUL</t>
+  </si>
+  <si>
+    <t>TSS729</t>
+  </si>
+  <si>
+    <t>FOTON</t>
+  </si>
+  <si>
+    <t>ESTACAS</t>
+  </si>
+  <si>
+    <t>LVBV4JBB5MY001170</t>
+  </si>
+  <si>
+    <t>2020-08-10</t>
+  </si>
+  <si>
+    <t>WDS138</t>
+  </si>
+  <si>
+    <t>SA2QLJ160246</t>
+  </si>
+  <si>
+    <t>8AFAR23LJ160246</t>
+  </si>
+  <si>
+    <t>2019-09-20</t>
+  </si>
+  <si>
+    <t>EYY168</t>
+  </si>
+  <si>
+    <t>4HK1-721085</t>
+  </si>
+  <si>
+    <t>9GCFRR907KB009649</t>
+  </si>
+  <si>
+    <t>GUR829</t>
+  </si>
+  <si>
+    <t>2GD-4701306</t>
+  </si>
+  <si>
+    <t>8AJKJB3CD5L1619046</t>
+  </si>
+  <si>
+    <t>2019-12-27</t>
+  </si>
+  <si>
+    <t>ANGELA MARCELA TAPIAS RIOS</t>
+  </si>
+  <si>
+    <t>WDT640</t>
+  </si>
+  <si>
+    <t>CNF111025</t>
+  </si>
+  <si>
+    <t>WV1ZZZ2HZLA000280</t>
+  </si>
+  <si>
+    <t>2020-01-15</t>
+  </si>
+  <si>
+    <t>TTP316</t>
+  </si>
+  <si>
+    <t>D4DDD534918</t>
+  </si>
+  <si>
+    <t>KMJHG17PPEC059568</t>
+  </si>
+  <si>
+    <t>2013-07-25</t>
+  </si>
+  <si>
+    <t>PROYECTOS Y SISTEMAS CONTABLES LIM</t>
+  </si>
+  <si>
+    <t>TSS635</t>
+  </si>
+  <si>
+    <t>2GD-4703778</t>
+  </si>
+  <si>
+    <t>8AJKB3CD1L119142</t>
+  </si>
+  <si>
+    <t>HERNAN YESID PINTO OLMOS</t>
+  </si>
+  <si>
+    <t>sxc453</t>
+  </si>
+  <si>
+    <t>AKCN-L D54614.C&lt;</t>
+  </si>
+  <si>
+    <t>2013-02-15</t>
+  </si>
+  <si>
+    <t>GUU313</t>
+  </si>
+  <si>
+    <t>2GD-4700099</t>
+  </si>
+  <si>
+    <t>8AJKB3CD8L1618988</t>
+  </si>
+  <si>
+    <t>2020-01-23</t>
+  </si>
+  <si>
+    <t>MARIO RODRIGUEZ RAMIREZ</t>
+  </si>
+  <si>
+    <t>SPD991</t>
+  </si>
+  <si>
+    <t>J05ETY10881</t>
+  </si>
+  <si>
+    <t>9F3FC9JLTGXX10438</t>
+  </si>
+  <si>
+    <t>2015-09-03</t>
   </si>
 </sst>
 </file>
@@ -595,11 +1339,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:X38"/>
+  <dimension ref="A1:X68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -748,23 +1492,53 @@
         <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
+        <v>34</v>
+      </c>
+      <c r="I3">
+        <v>3544</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3">
+        <v>3198</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" t="s">
+        <v>40</v>
+      </c>
+      <c r="V3">
+        <v>5000</v>
+      </c>
+      <c r="W3" t="s">
+        <v>41</v>
+      </c>
       <c r="X3" t="s">
         <v>30</v>
       </c>
@@ -777,30 +1551,68 @@
         <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D4">
         <v>2020</v>
       </c>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4">
+        <v>2019</v>
+      </c>
+      <c r="J4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4">
+        <v>2393</v>
+      </c>
+      <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>48</v>
+      </c>
+      <c r="R4" t="s">
+        <v>48</v>
+      </c>
+      <c r="S4">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s">
+        <v>48</v>
+      </c>
+      <c r="U4" t="s">
+        <v>49</v>
+      </c>
+      <c r="V4">
+        <v>5000</v>
+      </c>
+      <c r="W4" t="s">
+        <v>50</v>
+      </c>
       <c r="X4" t="s">
         <v>30</v>
       </c>
@@ -813,30 +1625,68 @@
         <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D5">
         <v>2020</v>
       </c>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5">
+        <v>1055</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5">
+        <v>2393</v>
+      </c>
+      <c r="L5" t="s">
+        <v>52</v>
+      </c>
+      <c r="M5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5">
+        <v>4</v>
+      </c>
+      <c r="P5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>55</v>
+      </c>
+      <c r="R5" t="s">
+        <v>55</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s">
+        <v>55</v>
+      </c>
+      <c r="U5" t="s">
+        <v>56</v>
+      </c>
+      <c r="V5">
+        <v>5000</v>
+      </c>
+      <c r="W5" t="s">
+        <v>57</v>
+      </c>
       <c r="X5" t="s">
         <v>30</v>
       </c>
@@ -846,33 +1696,71 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D6">
-        <v>2019</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
+        <v>2014</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6">
+        <v>1968</v>
+      </c>
+      <c r="L6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>65</v>
+      </c>
+      <c r="R6" t="s">
+        <v>65</v>
+      </c>
+      <c r="S6">
+        <v>20</v>
+      </c>
+      <c r="T6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U6" t="s">
+        <v>66</v>
+      </c>
+      <c r="V6">
+        <v>5000</v>
+      </c>
+      <c r="W6" t="s">
+        <v>50</v>
+      </c>
       <c r="X6" t="s">
         <v>30</v>
       </c>
@@ -885,38 +1773,68 @@
         <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="D7">
         <v>2019</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s">
         <v>29</v>
       </c>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
+      <c r="I7">
+        <v>4315</v>
+      </c>
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7">
+        <v>2393</v>
+      </c>
+      <c r="L7" t="s">
+        <v>46</v>
+      </c>
+      <c r="M7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>69</v>
+      </c>
+      <c r="R7" t="s">
+        <v>69</v>
+      </c>
+      <c r="S7">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s">
+        <v>69</v>
+      </c>
+      <c r="U7" t="s">
+        <v>70</v>
+      </c>
+      <c r="V7">
+        <v>5000</v>
+      </c>
+      <c r="W7" t="s">
+        <v>41</v>
+      </c>
       <c r="X7" t="s">
         <v>30</v>
       </c>
@@ -929,30 +1847,68 @@
         <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D8">
         <v>2019</v>
       </c>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8">
+        <v>1043</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8">
+        <v>2393</v>
+      </c>
+      <c r="L8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M8" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>73</v>
+      </c>
+      <c r="R8" t="s">
+        <v>73</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U8" t="s">
+        <v>74</v>
+      </c>
+      <c r="V8">
+        <v>5000</v>
+      </c>
+      <c r="W8" t="s">
+        <v>57</v>
+      </c>
       <c r="X8" t="s">
         <v>30</v>
       </c>
@@ -965,7 +1921,7 @@
         <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D9">
         <v>2019</v>
@@ -982,23 +1938,53 @@
       <c r="H9" t="s">
         <v>29</v>
       </c>
-      <c r="I9"/>
-      <c r="J9"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
+      <c r="I9">
+        <v>3555</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9">
+        <v>3198</v>
+      </c>
+      <c r="L9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" t="s">
+        <v>37</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>77</v>
+      </c>
+      <c r="R9" t="s">
+        <v>77</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s">
+        <v>77</v>
+      </c>
+      <c r="U9" t="s">
+        <v>78</v>
+      </c>
+      <c r="V9">
+        <v>5000</v>
+      </c>
+      <c r="W9" t="s">
+        <v>41</v>
+      </c>
       <c r="X9" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1009,38 +1995,68 @@
         <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="D10">
         <v>2020</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
         <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s">
         <v>29</v>
       </c>
-      <c r="I10"/>
-      <c r="J10"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
+      <c r="I10">
+        <v>1035</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10">
+        <v>2488</v>
+      </c>
+      <c r="L10" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+      <c r="P10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>85</v>
+      </c>
+      <c r="R10" t="s">
+        <v>85</v>
+      </c>
+      <c r="S10">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s">
+        <v>85</v>
+      </c>
+      <c r="U10" t="s">
+        <v>86</v>
+      </c>
+      <c r="V10">
+        <v>5000</v>
+      </c>
+      <c r="W10" t="s">
+        <v>41</v>
+      </c>
       <c r="X10" t="s">
         <v>30</v>
       </c>
@@ -1053,38 +2069,68 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="D11">
         <v>2020</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
         <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s">
         <v>29</v>
       </c>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11"/>
+      <c r="I11">
+        <v>1031</v>
+      </c>
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K11">
+        <v>2488</v>
+      </c>
+      <c r="L11" t="s">
+        <v>83</v>
+      </c>
+      <c r="M11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O11">
+        <v>4</v>
+      </c>
+      <c r="P11" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>89</v>
+      </c>
+      <c r="R11" t="s">
+        <v>89</v>
+      </c>
+      <c r="S11">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s">
+        <v>89</v>
+      </c>
+      <c r="U11" t="s">
+        <v>86</v>
+      </c>
+      <c r="V11">
+        <v>5000</v>
+      </c>
+      <c r="W11" t="s">
+        <v>90</v>
+      </c>
       <c r="X11" t="s">
         <v>30</v>
       </c>
@@ -1097,38 +2143,68 @@
         <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="D12">
         <v>2020</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
         <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s">
         <v>29</v>
       </c>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
+      <c r="I12">
+        <v>1056</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12">
+        <v>2393</v>
+      </c>
+      <c r="L12" t="s">
+        <v>46</v>
+      </c>
+      <c r="M12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N12" t="s">
+        <v>37</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12">
+        <v>24695710</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>92</v>
+      </c>
+      <c r="R12">
+        <v>4294967295</v>
+      </c>
+      <c r="S12">
+        <v>5</v>
+      </c>
+      <c r="T12">
+        <v>4294967295</v>
+      </c>
+      <c r="U12" t="s">
+        <v>93</v>
+      </c>
+      <c r="V12">
+        <v>5000</v>
+      </c>
+      <c r="W12" t="s">
+        <v>41</v>
+      </c>
       <c r="X12" t="s">
         <v>30</v>
       </c>
@@ -1141,7 +2217,7 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="D13">
         <v>2019</v>
@@ -1177,30 +2253,68 @@
         <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="D14">
-        <v>2019</v>
-      </c>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
+        <v>2020</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14">
+        <v>365</v>
+      </c>
+      <c r="J14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14">
+        <v>3198</v>
+      </c>
+      <c r="L14" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" t="s">
+        <v>37</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>97</v>
+      </c>
+      <c r="R14" t="s">
+        <v>97</v>
+      </c>
+      <c r="S14">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s">
+        <v>97</v>
+      </c>
+      <c r="U14" t="s">
+        <v>98</v>
+      </c>
+      <c r="V14">
+        <v>5000</v>
+      </c>
+      <c r="W14" t="s">
+        <v>99</v>
+      </c>
       <c r="X14" t="s">
         <v>30</v>
       </c>
@@ -1213,30 +2327,68 @@
         <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="D15">
-        <v>2019</v>
-      </c>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
+        <v>2020</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15">
+        <v>615</v>
+      </c>
+      <c r="J15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15">
+        <v>2393</v>
+      </c>
+      <c r="L15" t="s">
+        <v>46</v>
+      </c>
+      <c r="M15" t="s">
+        <v>34</v>
+      </c>
+      <c r="N15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="P15" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>102</v>
+      </c>
+      <c r="R15" t="s">
+        <v>102</v>
+      </c>
+      <c r="S15">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s">
+        <v>102</v>
+      </c>
+      <c r="U15" t="s">
+        <v>103</v>
+      </c>
+      <c r="V15">
+        <v>5000</v>
+      </c>
+      <c r="W15" t="s">
+        <v>104</v>
+      </c>
       <c r="X15" t="s">
         <v>30</v>
       </c>
@@ -1246,33 +2398,71 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="C16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16">
+        <v>2012</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16">
+        <v>1054</v>
+      </c>
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16">
+        <v>2461</v>
+      </c>
+      <c r="L16" t="s">
         <v>52</v>
       </c>
-      <c r="D16">
-        <v>2019</v>
-      </c>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
+      <c r="M16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" t="s">
+        <v>63</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+      <c r="P16" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>108</v>
+      </c>
+      <c r="R16" t="s">
+        <v>108</v>
+      </c>
+      <c r="S16">
+        <v>19</v>
+      </c>
+      <c r="T16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U16" t="s">
+        <v>109</v>
+      </c>
+      <c r="V16">
+        <v>5000</v>
+      </c>
+      <c r="W16" t="s">
+        <v>90</v>
+      </c>
       <c r="X16" t="s">
         <v>30</v>
       </c>
@@ -1285,30 +2475,68 @@
         <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="D17">
         <v>2019</v>
       </c>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
+      <c r="E17" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17">
+        <v>320</v>
+      </c>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17">
+        <v>2477</v>
+      </c>
+      <c r="L17" t="s">
+        <v>113</v>
+      </c>
+      <c r="M17" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" t="s">
+        <v>37</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>115</v>
+      </c>
+      <c r="R17" t="s">
+        <v>115</v>
+      </c>
+      <c r="S17">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s">
+        <v>115</v>
+      </c>
+      <c r="U17" t="s">
+        <v>116</v>
+      </c>
+      <c r="V17">
+        <v>5000</v>
+      </c>
+      <c r="W17" t="s">
+        <v>117</v>
+      </c>
       <c r="X17" t="s">
         <v>30</v>
       </c>
@@ -1321,7 +2549,7 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="D18">
         <v>2019</v>
@@ -1354,33 +2582,71 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="D19">
-        <v>2019</v>
-      </c>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
+        <v>2015</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>120</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19">
+        <v>2013</v>
+      </c>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19">
+        <v>5193</v>
+      </c>
+      <c r="L19" t="s">
+        <v>121</v>
+      </c>
+      <c r="M19" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" t="s">
+        <v>63</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="P19" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>123</v>
+      </c>
+      <c r="R19" t="s">
+        <v>123</v>
+      </c>
+      <c r="S19">
+        <v>25</v>
+      </c>
+      <c r="T19" t="s">
+        <v>123</v>
+      </c>
+      <c r="U19" t="s">
+        <v>124</v>
+      </c>
+      <c r="V19">
+        <v>5000</v>
+      </c>
+      <c r="W19" t="s">
+        <v>125</v>
+      </c>
       <c r="X19" t="s">
         <v>30</v>
       </c>
@@ -1390,10 +2656,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>126</v>
       </c>
       <c r="D20">
         <v>2019</v>
@@ -1426,33 +2692,71 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="D21">
-        <v>2019</v>
-      </c>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21"/>
-      <c r="W21"/>
+        <v>2015</v>
+      </c>
+      <c r="E21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" t="s">
+        <v>129</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21">
+        <v>347</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21">
+        <v>2771</v>
+      </c>
+      <c r="L21" t="s">
+        <v>52</v>
+      </c>
+      <c r="M21" t="s">
+        <v>34</v>
+      </c>
+      <c r="N21" t="s">
+        <v>63</v>
+      </c>
+      <c r="O21">
+        <v>2</v>
+      </c>
+      <c r="P21" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>131</v>
+      </c>
+      <c r="R21" t="s">
+        <v>131</v>
+      </c>
+      <c r="S21">
+        <v>12</v>
+      </c>
+      <c r="T21" t="s">
+        <v>131</v>
+      </c>
+      <c r="U21" t="s">
+        <v>132</v>
+      </c>
+      <c r="V21">
+        <v>5000</v>
+      </c>
+      <c r="W21" t="s">
+        <v>133</v>
+      </c>
       <c r="X21" t="s">
         <v>30</v>
       </c>
@@ -1465,30 +2769,68 @@
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>134</v>
       </c>
       <c r="D22">
-        <v>2019</v>
-      </c>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
-      <c r="U22"/>
-      <c r="V22"/>
-      <c r="W22"/>
+        <v>2020</v>
+      </c>
+      <c r="E22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22">
+        <v>226</v>
+      </c>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22">
+        <v>2488</v>
+      </c>
+      <c r="L22" t="s">
+        <v>83</v>
+      </c>
+      <c r="M22" t="s">
+        <v>34</v>
+      </c>
+      <c r="N22" t="s">
+        <v>37</v>
+      </c>
+      <c r="O22">
+        <v>4</v>
+      </c>
+      <c r="P22" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>136</v>
+      </c>
+      <c r="R22" t="s">
+        <v>136</v>
+      </c>
+      <c r="S22">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s">
+        <v>136</v>
+      </c>
+      <c r="U22" t="s">
+        <v>137</v>
+      </c>
+      <c r="V22">
+        <v>5000</v>
+      </c>
+      <c r="W22" t="s">
+        <v>41</v>
+      </c>
       <c r="X22" t="s">
         <v>30</v>
       </c>
@@ -1501,30 +2843,68 @@
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
-      <c r="U23"/>
-      <c r="V23"/>
-      <c r="W23"/>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23">
+        <v>44</v>
+      </c>
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23">
+        <v>3198</v>
+      </c>
+      <c r="L23" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" t="s">
+        <v>34</v>
+      </c>
+      <c r="N23" t="s">
+        <v>37</v>
+      </c>
+      <c r="O23">
+        <v>4</v>
+      </c>
+      <c r="P23" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>140</v>
+      </c>
+      <c r="R23" t="s">
+        <v>140</v>
+      </c>
+      <c r="S23">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s">
+        <v>140</v>
+      </c>
+      <c r="U23" t="s">
+        <v>141</v>
+      </c>
+      <c r="V23">
+        <v>5000</v>
+      </c>
+      <c r="W23" t="s">
+        <v>133</v>
+      </c>
       <c r="X23" t="s">
         <v>30</v>
       </c>
@@ -1537,7 +2917,7 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="D24">
         <v>2019</v>
@@ -1573,7 +2953,7 @@
         <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="D25">
         <v>2019</v>
@@ -1609,7 +2989,7 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="D26">
         <v>2019</v>
@@ -1642,33 +3022,71 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27">
+        <v>2014</v>
+      </c>
+      <c r="E27" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s">
+        <v>120</v>
+      </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27">
+        <v>2014</v>
+      </c>
+      <c r="J27" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27">
+        <v>5193</v>
+      </c>
+      <c r="L27" t="s">
+        <v>146</v>
+      </c>
+      <c r="M27" t="s">
+        <v>34</v>
+      </c>
+      <c r="N27" t="s">
         <v>63</v>
       </c>
-      <c r="D27">
-        <v>2019</v>
-      </c>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27"/>
-      <c r="U27"/>
-      <c r="V27"/>
-      <c r="W27"/>
+      <c r="O27">
+        <v>2</v>
+      </c>
+      <c r="P27" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>148</v>
+      </c>
+      <c r="R27" t="s">
+        <v>148</v>
+      </c>
+      <c r="S27">
+        <v>20</v>
+      </c>
+      <c r="T27" t="s">
+        <v>148</v>
+      </c>
+      <c r="U27" t="s">
+        <v>149</v>
+      </c>
+      <c r="V27">
+        <v>5000</v>
+      </c>
+      <c r="W27" t="s">
+        <v>150</v>
+      </c>
       <c r="X27" t="s">
         <v>30</v>
       </c>
@@ -1678,10 +3096,10 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="D28">
         <v>2019</v>
@@ -1717,7 +3135,7 @@
         <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="D29">
         <v>2019</v>
@@ -1753,7 +3171,7 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="D30">
         <v>2019</v>
@@ -1789,30 +3207,68 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="D31">
-        <v>2019</v>
-      </c>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
-      <c r="U31"/>
-      <c r="V31"/>
-      <c r="W31"/>
+        <v>2020</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31">
+        <v>3020</v>
+      </c>
+      <c r="J31" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31">
+        <v>2393</v>
+      </c>
+      <c r="L31" t="s">
+        <v>46</v>
+      </c>
+      <c r="M31" t="s">
+        <v>34</v>
+      </c>
+      <c r="N31" t="s">
+        <v>37</v>
+      </c>
+      <c r="O31">
+        <v>4</v>
+      </c>
+      <c r="P31" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>156</v>
+      </c>
+      <c r="R31" t="s">
+        <v>156</v>
+      </c>
+      <c r="S31">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s">
+        <v>156</v>
+      </c>
+      <c r="U31" t="s">
+        <v>157</v>
+      </c>
+      <c r="V31">
+        <v>5000</v>
+      </c>
+      <c r="W31" t="s">
+        <v>41</v>
+      </c>
       <c r="X31" t="s">
         <v>30</v>
       </c>
@@ -1825,30 +3281,68 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="D32">
         <v>2019</v>
       </c>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
-      <c r="R32"/>
-      <c r="S32"/>
-      <c r="T32"/>
-      <c r="U32"/>
-      <c r="V32"/>
-      <c r="W32"/>
+      <c r="E32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" t="s">
+        <v>27</v>
+      </c>
+      <c r="G32" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32">
+        <v>45</v>
+      </c>
+      <c r="J32" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32">
+        <v>3198</v>
+      </c>
+      <c r="L32" t="s">
+        <v>36</v>
+      </c>
+      <c r="M32" t="s">
+        <v>34</v>
+      </c>
+      <c r="N32" t="s">
+        <v>37</v>
+      </c>
+      <c r="O32">
+        <v>4</v>
+      </c>
+      <c r="P32" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>160</v>
+      </c>
+      <c r="R32" t="s">
+        <v>160</v>
+      </c>
+      <c r="S32">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s">
+        <v>160</v>
+      </c>
+      <c r="U32" t="s">
+        <v>141</v>
+      </c>
+      <c r="V32">
+        <v>5000</v>
+      </c>
+      <c r="W32" t="s">
+        <v>161</v>
+      </c>
       <c r="X32" t="s">
         <v>30</v>
       </c>
@@ -1861,7 +3355,7 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>162</v>
       </c>
       <c r="D33">
         <v>2019</v>
@@ -1894,33 +3388,71 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34">
+        <v>2020</v>
+      </c>
+      <c r="E34" t="s">
+        <v>164</v>
+      </c>
+      <c r="F34" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" t="s">
+        <v>165</v>
+      </c>
+      <c r="H34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34">
+        <v>8</v>
+      </c>
+      <c r="J34" t="s">
+        <v>45</v>
+      </c>
+      <c r="K34">
+        <v>2143</v>
+      </c>
+      <c r="L34" t="s">
         <v>36</v>
       </c>
-      <c r="C34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34">
-        <v>2019</v>
-      </c>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
-      <c r="R34"/>
-      <c r="S34"/>
-      <c r="T34"/>
-      <c r="U34"/>
-      <c r="V34"/>
-      <c r="W34"/>
+      <c r="M34" t="s">
+        <v>34</v>
+      </c>
+      <c r="N34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O34">
+        <v>2</v>
+      </c>
+      <c r="P34" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>167</v>
+      </c>
+      <c r="R34" t="s">
+        <v>167</v>
+      </c>
+      <c r="S34">
+        <v>20</v>
+      </c>
+      <c r="T34" t="s">
+        <v>167</v>
+      </c>
+      <c r="U34" t="s">
+        <v>168</v>
+      </c>
+      <c r="V34">
+        <v>5000</v>
+      </c>
+      <c r="W34" t="s">
+        <v>169</v>
+      </c>
       <c r="X34" t="s">
         <v>30</v>
       </c>
@@ -1930,10 +3462,10 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="D35">
         <v>2019</v>
@@ -1969,7 +3501,7 @@
         <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>171</v>
       </c>
       <c r="D36">
         <v>2019</v>
@@ -2010,41 +3542,71 @@
         <v>43</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="D37">
-        <v>2001</v>
+        <v>2020</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="F37" t="s">
         <v>27</v>
       </c>
       <c r="G37" t="s">
-        <v>28</v>
+        <v>165</v>
       </c>
       <c r="H37" t="s">
         <v>29</v>
       </c>
-      <c r="I37"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
-      <c r="M37"/>
-      <c r="N37"/>
-      <c r="O37"/>
-      <c r="P37"/>
-      <c r="Q37"/>
-      <c r="R37"/>
-      <c r="S37"/>
-      <c r="T37"/>
-      <c r="U37"/>
-      <c r="V37"/>
-      <c r="W37"/>
+      <c r="I37">
+        <v>3661</v>
+      </c>
+      <c r="J37" t="s">
+        <v>45</v>
+      </c>
+      <c r="K37">
+        <v>2143</v>
+      </c>
+      <c r="L37" t="s">
+        <v>36</v>
+      </c>
+      <c r="M37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N37" t="s">
+        <v>63</v>
+      </c>
+      <c r="O37">
+        <v>2</v>
+      </c>
+      <c r="P37" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>174</v>
+      </c>
+      <c r="R37" t="s">
+        <v>174</v>
+      </c>
+      <c r="S37">
+        <v>19</v>
+      </c>
+      <c r="T37" t="s">
+        <v>174</v>
+      </c>
+      <c r="U37" t="s">
+        <v>175</v>
+      </c>
+      <c r="V37">
+        <v>5000</v>
+      </c>
+      <c r="W37" t="s">
+        <v>176</v>
+      </c>
       <c r="X37" t="s">
         <v>30</v>
       </c>
@@ -2054,72 +3616,2292 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>75</v>
+        <v>177</v>
       </c>
       <c r="D38">
-        <v>1901</v>
+        <v>2018</v>
       </c>
       <c r="E38" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="F38" t="s">
         <v>27</v>
       </c>
       <c r="G38" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="H38" t="s">
         <v>29</v>
       </c>
       <c r="I38">
-        <v>9</v>
+        <v>381</v>
       </c>
       <c r="J38" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="K38">
-        <v>1200</v>
+        <v>1910</v>
       </c>
       <c r="L38" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="M38" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="N38" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="O38">
         <v>4</v>
       </c>
-      <c r="P38">
-        <v>267890</v>
-      </c>
-      <c r="Q38">
-        <v>100</v>
-      </c>
-      <c r="R38">
-        <v>4567890</v>
+      <c r="P38" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>179</v>
+      </c>
+      <c r="R38" t="s">
+        <v>179</v>
       </c>
       <c r="S38">
-        <v>1</v>
-      </c>
-      <c r="T38">
-        <v>1876567</v>
+        <v>5</v>
+      </c>
+      <c r="T38" t="s">
+        <v>179</v>
       </c>
       <c r="U38" t="s">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="V38">
         <v>5000</v>
       </c>
       <c r="W38" t="s">
+        <v>181</v>
+      </c>
+      <c r="X38" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
+      <c r="A39">
+        <v>49</v>
+      </c>
+      <c r="B39" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" t="s">
+        <v>183</v>
+      </c>
+      <c r="D39">
+        <v>2010</v>
+      </c>
+      <c r="E39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39">
+        <v>10000012</v>
+      </c>
+      <c r="J39" t="s">
+        <v>184</v>
+      </c>
+      <c r="K39">
+        <v>1200</v>
+      </c>
+      <c r="L39" t="s">
+        <v>185</v>
+      </c>
+      <c r="M39" t="s">
+        <v>53</v>
+      </c>
+      <c r="N39" t="s">
+        <v>186</v>
+      </c>
+      <c r="O39">
+        <v>4</v>
+      </c>
+      <c r="P39">
+        <v>111011</v>
+      </c>
+      <c r="Q39">
+        <v>10000111</v>
+      </c>
+      <c r="R39" t="s">
+        <v>187</v>
+      </c>
+      <c r="S39">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s">
+        <v>188</v>
+      </c>
+      <c r="U39" t="s">
+        <v>189</v>
+      </c>
+      <c r="V39">
+        <v>10000</v>
+      </c>
+      <c r="W39" t="s">
+        <v>41</v>
+      </c>
+      <c r="X39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24">
+      <c r="A40">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" t="s">
+        <v>190</v>
+      </c>
+      <c r="D40">
+        <v>2020</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>27</v>
+      </c>
+      <c r="G40" t="s">
+        <v>44</v>
+      </c>
+      <c r="H40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>45</v>
+      </c>
+      <c r="K40">
+        <v>2393</v>
+      </c>
+      <c r="L40" t="s">
+        <v>46</v>
+      </c>
+      <c r="M40" t="s">
+        <v>34</v>
+      </c>
+      <c r="N40" t="s">
+        <v>37</v>
+      </c>
+      <c r="O40">
+        <v>4</v>
+      </c>
+      <c r="P40" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>192</v>
+      </c>
+      <c r="R40" t="s">
+        <v>192</v>
+      </c>
+      <c r="S40">
+        <v>2910</v>
+      </c>
+      <c r="T40" t="s">
+        <v>192</v>
+      </c>
+      <c r="U40" t="s">
+        <v>193</v>
+      </c>
+      <c r="V40">
+        <v>5000</v>
+      </c>
+      <c r="W40" t="s">
+        <v>194</v>
+      </c>
+      <c r="X40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
+      <c r="A41">
+        <v>51</v>
+      </c>
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" t="s">
+        <v>195</v>
+      </c>
+      <c r="D41">
+        <v>2019</v>
+      </c>
+      <c r="E41" t="s">
+        <v>60</v>
+      </c>
+      <c r="F41" t="s">
+        <v>27</v>
+      </c>
+      <c r="G41" t="s">
+        <v>196</v>
+      </c>
+      <c r="H41" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41">
+        <v>106</v>
+      </c>
+      <c r="J41" t="s">
+        <v>45</v>
+      </c>
+      <c r="K41">
+        <v>1968</v>
+      </c>
+      <c r="L41" t="s">
+        <v>62</v>
+      </c>
+      <c r="M41" t="s">
+        <v>34</v>
+      </c>
+      <c r="N41" t="s">
+        <v>37</v>
+      </c>
+      <c r="O41">
+        <v>4</v>
+      </c>
+      <c r="P41" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>198</v>
+      </c>
+      <c r="R41" t="s">
+        <v>198</v>
+      </c>
+      <c r="S41">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s">
+        <v>198</v>
+      </c>
+      <c r="U41" t="s">
+        <v>199</v>
+      </c>
+      <c r="V41">
+        <v>5000</v>
+      </c>
+      <c r="W41" t="s">
+        <v>200</v>
+      </c>
+      <c r="X41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
+      <c r="A42">
+        <v>52</v>
+      </c>
+      <c r="B42" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" t="s">
+        <v>201</v>
+      </c>
+      <c r="D42">
+        <v>2017</v>
+      </c>
+      <c r="E42" t="s">
         <v>81</v>
       </c>
-      <c r="X38" t="s">
+      <c r="F42" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" t="s">
+        <v>120</v>
+      </c>
+      <c r="H42" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42">
+        <v>1104</v>
+      </c>
+      <c r="J42" t="s">
+        <v>45</v>
+      </c>
+      <c r="K42">
+        <v>2299</v>
+      </c>
+      <c r="L42" t="s">
+        <v>202</v>
+      </c>
+      <c r="M42" t="s">
+        <v>34</v>
+      </c>
+      <c r="N42" t="s">
+        <v>63</v>
+      </c>
+      <c r="O42">
+        <v>2</v>
+      </c>
+      <c r="P42" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>204</v>
+      </c>
+      <c r="R42" t="s">
+        <v>204</v>
+      </c>
+      <c r="S42">
+        <v>17</v>
+      </c>
+      <c r="T42" t="s">
+        <v>204</v>
+      </c>
+      <c r="U42" t="s">
+        <v>205</v>
+      </c>
+      <c r="V42">
+        <v>5000</v>
+      </c>
+      <c r="W42" t="s">
+        <v>206</v>
+      </c>
+      <c r="X42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
+      <c r="A43">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" t="s">
+        <v>207</v>
+      </c>
+      <c r="D43">
+        <v>2020</v>
+      </c>
+      <c r="E43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F43" t="s">
+        <v>27</v>
+      </c>
+      <c r="G43" t="s">
+        <v>28</v>
+      </c>
+      <c r="H43" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43" t="s">
+        <v>45</v>
+      </c>
+      <c r="K43">
+        <v>4009</v>
+      </c>
+      <c r="L43" t="s">
+        <v>146</v>
+      </c>
+      <c r="M43" t="s">
+        <v>34</v>
+      </c>
+      <c r="N43" t="s">
+        <v>63</v>
+      </c>
+      <c r="O43">
+        <v>2</v>
+      </c>
+      <c r="P43" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>209</v>
+      </c>
+      <c r="R43" t="s">
+        <v>209</v>
+      </c>
+      <c r="S43">
+        <v>29</v>
+      </c>
+      <c r="T43" t="s">
+        <v>209</v>
+      </c>
+      <c r="U43" t="s">
+        <v>210</v>
+      </c>
+      <c r="V43">
+        <v>5000</v>
+      </c>
+      <c r="W43" t="s">
+        <v>211</v>
+      </c>
+      <c r="X43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
+      <c r="A44">
+        <v>54</v>
+      </c>
+      <c r="B44" t="s">
+        <v>182</v>
+      </c>
+      <c r="C44" t="s">
+        <v>212</v>
+      </c>
+      <c r="D44">
+        <v>2019</v>
+      </c>
+      <c r="E44" t="s">
+        <v>26</v>
+      </c>
+      <c r="F44" t="s">
+        <v>27</v>
+      </c>
+      <c r="G44" t="s">
+        <v>129</v>
+      </c>
+      <c r="H44" t="s">
+        <v>29</v>
+      </c>
+      <c r="I44">
+        <v>790</v>
+      </c>
+      <c r="J44" t="s">
+        <v>35</v>
+      </c>
+      <c r="K44">
+        <v>5193</v>
+      </c>
+      <c r="L44" t="s">
+        <v>52</v>
+      </c>
+      <c r="M44" t="s">
+        <v>34</v>
+      </c>
+      <c r="N44" t="s">
+        <v>63</v>
+      </c>
+      <c r="O44">
+        <v>2</v>
+      </c>
+      <c r="P44" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>214</v>
+      </c>
+      <c r="R44" t="s">
+        <v>214</v>
+      </c>
+      <c r="S44">
+        <v>40</v>
+      </c>
+      <c r="T44" t="s">
+        <v>214</v>
+      </c>
+      <c r="U44" t="s">
+        <v>215</v>
+      </c>
+      <c r="V44">
+        <v>5000</v>
+      </c>
+      <c r="W44" t="s">
+        <v>216</v>
+      </c>
+      <c r="X44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
+      <c r="A45">
+        <v>55</v>
+      </c>
+      <c r="B45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" t="s">
+        <v>217</v>
+      </c>
+      <c r="D45">
+        <v>2019</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45">
+        <v>48</v>
+      </c>
+      <c r="J45" t="s">
+        <v>45</v>
+      </c>
+      <c r="K45">
+        <v>2393</v>
+      </c>
+      <c r="L45" t="s">
+        <v>46</v>
+      </c>
+      <c r="M45" t="s">
+        <v>34</v>
+      </c>
+      <c r="N45" t="s">
+        <v>37</v>
+      </c>
+      <c r="O45">
+        <v>4</v>
+      </c>
+      <c r="P45" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>219</v>
+      </c>
+      <c r="R45" t="s">
+        <v>219</v>
+      </c>
+      <c r="S45">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s">
+        <v>219</v>
+      </c>
+      <c r="U45" t="s">
+        <v>220</v>
+      </c>
+      <c r="V45">
+        <v>5000</v>
+      </c>
+      <c r="W45" t="s">
+        <v>221</v>
+      </c>
+      <c r="X45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
+      <c r="A46">
+        <v>56</v>
+      </c>
+      <c r="B46" t="s">
+        <v>182</v>
+      </c>
+      <c r="C46" t="s">
+        <v>222</v>
+      </c>
+      <c r="D46">
+        <v>2014</v>
+      </c>
+      <c r="E46" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" t="s">
+        <v>223</v>
+      </c>
+      <c r="H46" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46">
+        <v>957</v>
+      </c>
+      <c r="J46" t="s">
+        <v>45</v>
+      </c>
+      <c r="K46">
+        <v>5193</v>
+      </c>
+      <c r="L46" t="s">
+        <v>146</v>
+      </c>
+      <c r="M46" t="s">
+        <v>34</v>
+      </c>
+      <c r="N46" t="s">
+        <v>63</v>
+      </c>
+      <c r="O46">
+        <v>2</v>
+      </c>
+      <c r="P46" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>225</v>
+      </c>
+      <c r="R46" t="s">
+        <v>225</v>
+      </c>
+      <c r="S46">
+        <v>41</v>
+      </c>
+      <c r="T46" t="s">
+        <v>225</v>
+      </c>
+      <c r="U46" t="s">
+        <v>226</v>
+      </c>
+      <c r="V46">
+        <v>5000</v>
+      </c>
+      <c r="W46" t="s">
+        <v>227</v>
+      </c>
+      <c r="X46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
+      <c r="A47">
+        <v>57</v>
+      </c>
+      <c r="B47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" t="s">
+        <v>228</v>
+      </c>
+      <c r="D47">
+        <v>2015</v>
+      </c>
+      <c r="E47" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" t="s">
+        <v>27</v>
+      </c>
+      <c r="G47" t="s">
+        <v>120</v>
+      </c>
+      <c r="H47" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47">
+        <v>1305</v>
+      </c>
+      <c r="J47" t="s">
+        <v>45</v>
+      </c>
+      <c r="K47">
+        <v>2299</v>
+      </c>
+      <c r="L47" t="s">
+        <v>229</v>
+      </c>
+      <c r="M47" t="s">
+        <v>34</v>
+      </c>
+      <c r="N47" t="s">
+        <v>63</v>
+      </c>
+      <c r="O47">
+        <v>2</v>
+      </c>
+      <c r="P47" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>231</v>
+      </c>
+      <c r="R47" t="s">
+        <v>231</v>
+      </c>
+      <c r="S47">
+        <v>19</v>
+      </c>
+      <c r="T47" t="s">
+        <v>231</v>
+      </c>
+      <c r="U47" t="s">
+        <v>232</v>
+      </c>
+      <c r="V47">
+        <v>5000</v>
+      </c>
+      <c r="W47" t="s">
+        <v>233</v>
+      </c>
+      <c r="X47" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
+      <c r="A48">
+        <v>58</v>
+      </c>
+      <c r="B48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" t="s">
+        <v>234</v>
+      </c>
+      <c r="D48">
+        <v>2020</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" t="s">
+        <v>44</v>
+      </c>
+      <c r="H48" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48">
+        <v>96</v>
+      </c>
+      <c r="J48" t="s">
+        <v>35</v>
+      </c>
+      <c r="K48">
+        <v>2393</v>
+      </c>
+      <c r="L48" t="s">
+        <v>46</v>
+      </c>
+      <c r="M48" t="s">
+        <v>34</v>
+      </c>
+      <c r="N48" t="s">
+        <v>37</v>
+      </c>
+      <c r="O48">
+        <v>4</v>
+      </c>
+      <c r="P48" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>236</v>
+      </c>
+      <c r="R48" t="s">
+        <v>236</v>
+      </c>
+      <c r="S48">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s">
+        <v>236</v>
+      </c>
+      <c r="U48" t="s">
+        <v>237</v>
+      </c>
+      <c r="V48">
+        <v>5000</v>
+      </c>
+      <c r="W48" t="s">
+        <v>233</v>
+      </c>
+      <c r="X48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
+      <c r="A49">
+        <v>59</v>
+      </c>
+      <c r="B49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" t="s">
+        <v>238</v>
+      </c>
+      <c r="D49">
+        <v>2021</v>
+      </c>
+      <c r="E49" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" t="s">
+        <v>27</v>
+      </c>
+      <c r="G49" t="s">
+        <v>120</v>
+      </c>
+      <c r="H49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I49">
+        <v>82233</v>
+      </c>
+      <c r="J49" t="s">
+        <v>45</v>
+      </c>
+      <c r="K49">
+        <v>2299</v>
+      </c>
+      <c r="L49" t="s">
+        <v>202</v>
+      </c>
+      <c r="M49" t="s">
+        <v>34</v>
+      </c>
+      <c r="N49" t="s">
+        <v>63</v>
+      </c>
+      <c r="O49">
+        <v>2</v>
+      </c>
+      <c r="P49" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>240</v>
+      </c>
+      <c r="R49" t="s">
+        <v>240</v>
+      </c>
+      <c r="S49">
+        <v>17</v>
+      </c>
+      <c r="T49" t="s">
+        <v>240</v>
+      </c>
+      <c r="U49" t="s">
+        <v>241</v>
+      </c>
+      <c r="V49">
+        <v>5000</v>
+      </c>
+      <c r="W49" t="s">
+        <v>117</v>
+      </c>
+      <c r="X49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
+      <c r="A50">
+        <v>60</v>
+      </c>
+      <c r="B50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" t="s">
+        <v>242</v>
+      </c>
+      <c r="D50">
+        <v>2018</v>
+      </c>
+      <c r="E50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" t="s">
+        <v>27</v>
+      </c>
+      <c r="G50" t="s">
+        <v>33</v>
+      </c>
+      <c r="H50" t="s">
+        <v>29</v>
+      </c>
+      <c r="I50">
+        <v>1389</v>
+      </c>
+      <c r="J50" t="s">
+        <v>45</v>
+      </c>
+      <c r="K50">
+        <v>3198</v>
+      </c>
+      <c r="L50" t="s">
+        <v>36</v>
+      </c>
+      <c r="M50" t="s">
+        <v>34</v>
+      </c>
+      <c r="N50" t="s">
+        <v>37</v>
+      </c>
+      <c r="O50">
+        <v>4</v>
+      </c>
+      <c r="P50" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>244</v>
+      </c>
+      <c r="R50" t="s">
+        <v>244</v>
+      </c>
+      <c r="S50">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s">
+        <v>244</v>
+      </c>
+      <c r="U50" t="s">
+        <v>245</v>
+      </c>
+      <c r="V50">
+        <v>5000</v>
+      </c>
+      <c r="W50" t="s">
+        <v>246</v>
+      </c>
+      <c r="X50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
+      <c r="A51">
+        <v>61</v>
+      </c>
+      <c r="B51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" t="s">
+        <v>247</v>
+      </c>
+      <c r="D51">
+        <v>2020</v>
+      </c>
+      <c r="E51" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" t="s">
+        <v>120</v>
+      </c>
+      <c r="H51" t="s">
+        <v>29</v>
+      </c>
+      <c r="I51">
+        <v>37</v>
+      </c>
+      <c r="J51" t="s">
+        <v>45</v>
+      </c>
+      <c r="K51">
+        <v>2299</v>
+      </c>
+      <c r="L51" t="s">
+        <v>229</v>
+      </c>
+      <c r="M51" t="s">
+        <v>34</v>
+      </c>
+      <c r="N51" t="s">
+        <v>63</v>
+      </c>
+      <c r="O51">
+        <v>2</v>
+      </c>
+      <c r="P51" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>249</v>
+      </c>
+      <c r="R51" t="s">
+        <v>249</v>
+      </c>
+      <c r="S51">
+        <v>17</v>
+      </c>
+      <c r="T51" t="s">
+        <v>249</v>
+      </c>
+      <c r="U51" t="s">
+        <v>250</v>
+      </c>
+      <c r="V51">
+        <v>5000</v>
+      </c>
+      <c r="W51" t="s">
+        <v>251</v>
+      </c>
+      <c r="X51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24">
+      <c r="A52">
+        <v>62</v>
+      </c>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" t="s">
+        <v>252</v>
+      </c>
+      <c r="D52">
+        <v>2014</v>
+      </c>
+      <c r="E52" t="s">
+        <v>128</v>
+      </c>
+      <c r="F52" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I52">
+        <v>632</v>
+      </c>
+      <c r="J52" t="s">
+        <v>45</v>
+      </c>
+      <c r="K52">
+        <v>2500</v>
+      </c>
+      <c r="L52" t="s">
+        <v>52</v>
+      </c>
+      <c r="M52" t="s">
+        <v>34</v>
+      </c>
+      <c r="N52" t="s">
+        <v>63</v>
+      </c>
+      <c r="O52">
+        <v>2</v>
+      </c>
+      <c r="P52" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>254</v>
+      </c>
+      <c r="R52" t="s">
+        <v>254</v>
+      </c>
+      <c r="S52">
+        <v>19</v>
+      </c>
+      <c r="T52" t="s">
+        <v>254</v>
+      </c>
+      <c r="U52" t="s">
+        <v>255</v>
+      </c>
+      <c r="V52">
+        <v>5000</v>
+      </c>
+      <c r="W52" t="s">
+        <v>256</v>
+      </c>
+      <c r="X52" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
+      <c r="A53">
+        <v>63</v>
+      </c>
+      <c r="B53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" t="s">
+        <v>257</v>
+      </c>
+      <c r="D53">
+        <v>2020</v>
+      </c>
+      <c r="E53" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53" t="s">
+        <v>33</v>
+      </c>
+      <c r="H53" t="s">
+        <v>29</v>
+      </c>
+      <c r="I53">
+        <v>364</v>
+      </c>
+      <c r="J53" t="s">
+        <v>45</v>
+      </c>
+      <c r="K53">
+        <v>3198</v>
+      </c>
+      <c r="L53" t="s">
+        <v>36</v>
+      </c>
+      <c r="M53" t="s">
+        <v>34</v>
+      </c>
+      <c r="N53" t="s">
+        <v>37</v>
+      </c>
+      <c r="O53">
+        <v>4</v>
+      </c>
+      <c r="P53" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>259</v>
+      </c>
+      <c r="R53" t="s">
+        <v>259</v>
+      </c>
+      <c r="S53">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s">
+        <v>259</v>
+      </c>
+      <c r="U53" t="s">
+        <v>260</v>
+      </c>
+      <c r="V53">
+        <v>5000</v>
+      </c>
+      <c r="W53" t="s">
+        <v>256</v>
+      </c>
+      <c r="X53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
+      <c r="A54">
+        <v>64</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" t="s">
+        <v>261</v>
+      </c>
+      <c r="D54">
+        <v>2015</v>
+      </c>
+      <c r="E54" t="s">
+        <v>262</v>
+      </c>
+      <c r="F54" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" t="s">
+        <v>61</v>
+      </c>
+      <c r="H54" t="s">
+        <v>29</v>
+      </c>
+      <c r="I54">
+        <v>54</v>
+      </c>
+      <c r="J54" t="s">
+        <v>45</v>
+      </c>
+      <c r="K54">
+        <v>3907</v>
+      </c>
+      <c r="L54" t="s">
+        <v>52</v>
+      </c>
+      <c r="M54" t="s">
+        <v>34</v>
+      </c>
+      <c r="N54" t="s">
+        <v>63</v>
+      </c>
+      <c r="O54">
+        <v>2</v>
+      </c>
+      <c r="P54" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>264</v>
+      </c>
+      <c r="R54" t="s">
+        <v>264</v>
+      </c>
+      <c r="S54">
+        <v>23</v>
+      </c>
+      <c r="T54" t="s">
+        <v>264</v>
+      </c>
+      <c r="U54" t="s">
+        <v>265</v>
+      </c>
+      <c r="V54">
+        <v>5000</v>
+      </c>
+      <c r="W54" t="s">
+        <v>266</v>
+      </c>
+      <c r="X54" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
+      <c r="A55">
+        <v>65</v>
+      </c>
+      <c r="B55" t="s">
+        <v>182</v>
+      </c>
+      <c r="C55" t="s">
+        <v>267</v>
+      </c>
+      <c r="D55">
+        <v>2021</v>
+      </c>
+      <c r="E55" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" t="s">
+        <v>27</v>
+      </c>
+      <c r="G55" t="s">
+        <v>268</v>
+      </c>
+      <c r="H55" t="s">
+        <v>29</v>
+      </c>
+      <c r="I55">
+        <v>2006</v>
+      </c>
+      <c r="J55" t="s">
+        <v>45</v>
+      </c>
+      <c r="K55">
+        <v>5193</v>
+      </c>
+      <c r="L55" t="s">
+        <v>146</v>
+      </c>
+      <c r="M55" t="s">
+        <v>34</v>
+      </c>
+      <c r="N55" t="s">
+        <v>63</v>
+      </c>
+      <c r="O55">
+        <v>2</v>
+      </c>
+      <c r="P55" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>270</v>
+      </c>
+      <c r="R55" t="s">
+        <v>270</v>
+      </c>
+      <c r="S55">
+        <v>41</v>
+      </c>
+      <c r="T55" t="s">
+        <v>270</v>
+      </c>
+      <c r="U55" t="s">
+        <v>271</v>
+      </c>
+      <c r="V55">
+        <v>5000</v>
+      </c>
+      <c r="W55" t="s">
+        <v>266</v>
+      </c>
+      <c r="X55" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24">
+      <c r="A56">
+        <v>66</v>
+      </c>
+      <c r="B56" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" t="s">
+        <v>272</v>
+      </c>
+      <c r="D56">
+        <v>2020</v>
+      </c>
+      <c r="E56" t="s">
+        <v>28</v>
+      </c>
+      <c r="F56" t="s">
+        <v>27</v>
+      </c>
+      <c r="G56" t="s">
+        <v>33</v>
+      </c>
+      <c r="H56" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56">
+        <v>353</v>
+      </c>
+      <c r="J56" t="s">
+        <v>45</v>
+      </c>
+      <c r="K56">
+        <v>3198</v>
+      </c>
+      <c r="L56" t="s">
+        <v>36</v>
+      </c>
+      <c r="M56" t="s">
+        <v>34</v>
+      </c>
+      <c r="N56" t="s">
+        <v>37</v>
+      </c>
+      <c r="O56">
+        <v>2</v>
+      </c>
+      <c r="P56" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>274</v>
+      </c>
+      <c r="R56" t="s">
+        <v>274</v>
+      </c>
+      <c r="S56">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s">
+        <v>274</v>
+      </c>
+      <c r="U56" t="s">
+        <v>275</v>
+      </c>
+      <c r="V56">
+        <v>5000</v>
+      </c>
+      <c r="W56" t="s">
+        <v>266</v>
+      </c>
+      <c r="X56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
+      <c r="A57">
+        <v>67</v>
+      </c>
+      <c r="B57" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57" t="s">
+        <v>276</v>
+      </c>
+      <c r="D57">
+        <v>2015</v>
+      </c>
+      <c r="E57" t="s">
+        <v>277</v>
+      </c>
+      <c r="F57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57" t="s">
+        <v>278</v>
+      </c>
+      <c r="H57" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57">
+        <v>80</v>
+      </c>
+      <c r="J57" t="s">
+        <v>45</v>
+      </c>
+      <c r="K57">
+        <v>5123</v>
+      </c>
+      <c r="L57" t="s">
+        <v>146</v>
+      </c>
+      <c r="M57" t="s">
+        <v>34</v>
+      </c>
+      <c r="N57" t="s">
+        <v>63</v>
+      </c>
+      <c r="O57">
+        <v>2</v>
+      </c>
+      <c r="P57" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>280</v>
+      </c>
+      <c r="R57" t="s">
+        <v>280</v>
+      </c>
+      <c r="S57">
+        <v>41</v>
+      </c>
+      <c r="T57" t="s">
+        <v>280</v>
+      </c>
+      <c r="U57" t="s">
+        <v>281</v>
+      </c>
+      <c r="V57">
+        <v>5000</v>
+      </c>
+      <c r="W57" t="s">
+        <v>282</v>
+      </c>
+      <c r="X57" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
+      <c r="A58">
+        <v>68</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" t="s">
+        <v>283</v>
+      </c>
+      <c r="D58">
+        <v>2014</v>
+      </c>
+      <c r="E58" t="s">
+        <v>262</v>
+      </c>
+      <c r="F58" t="s">
+        <v>27</v>
+      </c>
+      <c r="G58" t="s">
+        <v>61</v>
+      </c>
+      <c r="H58" t="s">
+        <v>29</v>
+      </c>
+      <c r="I58">
+        <v>135</v>
+      </c>
+      <c r="J58" t="s">
+        <v>45</v>
+      </c>
+      <c r="K58">
+        <v>3907</v>
+      </c>
+      <c r="L58" t="s">
+        <v>52</v>
+      </c>
+      <c r="M58" t="s">
+        <v>34</v>
+      </c>
+      <c r="N58" t="s">
+        <v>63</v>
+      </c>
+      <c r="O58">
+        <v>2</v>
+      </c>
+      <c r="P58" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>285</v>
+      </c>
+      <c r="R58" t="s">
+        <v>285</v>
+      </c>
+      <c r="S58">
+        <v>23</v>
+      </c>
+      <c r="T58" t="s">
+        <v>285</v>
+      </c>
+      <c r="U58" t="s">
+        <v>286</v>
+      </c>
+      <c r="V58">
+        <v>5000</v>
+      </c>
+      <c r="W58" t="s">
+        <v>287</v>
+      </c>
+      <c r="X58" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:24">
+      <c r="A59">
+        <v>69</v>
+      </c>
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" t="s">
+        <v>288</v>
+      </c>
+      <c r="D59">
+        <v>2021</v>
+      </c>
+      <c r="E59" t="s">
+        <v>289</v>
+      </c>
+      <c r="F59" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" t="s">
+        <v>28</v>
+      </c>
+      <c r="H59" t="s">
+        <v>34</v>
+      </c>
+      <c r="I59">
+        <v>321</v>
+      </c>
+      <c r="J59" t="s">
+        <v>35</v>
+      </c>
+      <c r="K59">
+        <v>3760</v>
+      </c>
+      <c r="L59" t="s">
+        <v>52</v>
+      </c>
+      <c r="M59" t="s">
+        <v>34</v>
+      </c>
+      <c r="N59" t="s">
+        <v>290</v>
+      </c>
+      <c r="O59">
+        <v>2</v>
+      </c>
+      <c r="P59">
+        <v>76530675</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>291</v>
+      </c>
+      <c r="R59" t="s">
+        <v>291</v>
+      </c>
+      <c r="S59">
+        <v>5215</v>
+      </c>
+      <c r="T59" t="s">
+        <v>291</v>
+      </c>
+      <c r="U59" t="s">
+        <v>292</v>
+      </c>
+      <c r="V59">
+        <v>5000</v>
+      </c>
+      <c r="W59" t="s">
+        <v>41</v>
+      </c>
+      <c r="X59" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
+      <c r="A60">
+        <v>70</v>
+      </c>
+      <c r="B60" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" t="s">
+        <v>293</v>
+      </c>
+      <c r="D60">
+        <v>2020</v>
+      </c>
+      <c r="E60" t="s">
+        <v>28</v>
+      </c>
+      <c r="F60" t="s">
+        <v>27</v>
+      </c>
+      <c r="G60" t="s">
+        <v>33</v>
+      </c>
+      <c r="H60" t="s">
+        <v>29</v>
+      </c>
+      <c r="I60">
+        <v>378</v>
+      </c>
+      <c r="J60" t="s">
+        <v>184</v>
+      </c>
+      <c r="K60">
+        <v>3198</v>
+      </c>
+      <c r="L60" t="s">
+        <v>36</v>
+      </c>
+      <c r="M60" t="s">
+        <v>34</v>
+      </c>
+      <c r="N60" t="s">
+        <v>37</v>
+      </c>
+      <c r="O60">
+        <v>4</v>
+      </c>
+      <c r="P60" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>295</v>
+      </c>
+      <c r="R60" t="s">
+        <v>295</v>
+      </c>
+      <c r="S60">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s">
+        <v>295</v>
+      </c>
+      <c r="U60" t="s">
+        <v>296</v>
+      </c>
+      <c r="V60">
+        <v>5000</v>
+      </c>
+      <c r="W60" t="s">
+        <v>221</v>
+      </c>
+      <c r="X60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
+      <c r="A61">
+        <v>71</v>
+      </c>
+      <c r="B61" t="s">
+        <v>182</v>
+      </c>
+      <c r="C61" t="s">
+        <v>297</v>
+      </c>
+      <c r="D61">
+        <v>2019</v>
+      </c>
+      <c r="E61" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61" t="s">
+        <v>27</v>
+      </c>
+      <c r="G61" t="s">
+        <v>268</v>
+      </c>
+      <c r="H61" t="s">
+        <v>29</v>
+      </c>
+      <c r="I61">
+        <v>789</v>
+      </c>
+      <c r="J61" t="s">
+        <v>45</v>
+      </c>
+      <c r="K61">
+        <v>5193</v>
+      </c>
+      <c r="L61" t="s">
+        <v>52</v>
+      </c>
+      <c r="M61" t="s">
+        <v>34</v>
+      </c>
+      <c r="N61" t="s">
+        <v>63</v>
+      </c>
+      <c r="O61">
+        <v>2</v>
+      </c>
+      <c r="P61" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>299</v>
+      </c>
+      <c r="R61" t="s">
+        <v>299</v>
+      </c>
+      <c r="S61">
+        <v>40</v>
+      </c>
+      <c r="T61" t="s">
+        <v>299</v>
+      </c>
+      <c r="U61" t="s">
+        <v>215</v>
+      </c>
+      <c r="V61">
+        <v>5000</v>
+      </c>
+      <c r="W61" t="s">
+        <v>216</v>
+      </c>
+      <c r="X61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
+      <c r="A62">
+        <v>72</v>
+      </c>
+      <c r="B62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" t="s">
+        <v>300</v>
+      </c>
+      <c r="D62">
+        <v>2020</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>27</v>
+      </c>
+      <c r="G62" t="s">
+        <v>44</v>
+      </c>
+      <c r="H62" t="s">
+        <v>29</v>
+      </c>
+      <c r="I62">
+        <v>2635</v>
+      </c>
+      <c r="J62" t="s">
+        <v>45</v>
+      </c>
+      <c r="K62">
+        <v>2393</v>
+      </c>
+      <c r="L62" t="s">
+        <v>46</v>
+      </c>
+      <c r="M62" t="s">
+        <v>34</v>
+      </c>
+      <c r="N62" t="s">
+        <v>37</v>
+      </c>
+      <c r="O62">
+        <v>4</v>
+      </c>
+      <c r="P62" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>302</v>
+      </c>
+      <c r="R62" t="s">
+        <v>302</v>
+      </c>
+      <c r="S62">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s">
+        <v>302</v>
+      </c>
+      <c r="U62" t="s">
+        <v>303</v>
+      </c>
+      <c r="V62">
+        <v>5000</v>
+      </c>
+      <c r="W62" t="s">
+        <v>304</v>
+      </c>
+      <c r="X62" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
+      <c r="A63">
+        <v>73</v>
+      </c>
+      <c r="B63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" t="s">
+        <v>305</v>
+      </c>
+      <c r="D63">
+        <v>2020</v>
+      </c>
+      <c r="E63" t="s">
+        <v>60</v>
+      </c>
+      <c r="F63" t="s">
+        <v>27</v>
+      </c>
+      <c r="G63" t="s">
+        <v>196</v>
+      </c>
+      <c r="H63" t="s">
+        <v>29</v>
+      </c>
+      <c r="I63">
+        <v>1105</v>
+      </c>
+      <c r="J63" t="s">
+        <v>45</v>
+      </c>
+      <c r="K63">
+        <v>1968</v>
+      </c>
+      <c r="L63" t="s">
+        <v>62</v>
+      </c>
+      <c r="M63" t="s">
+        <v>34</v>
+      </c>
+      <c r="N63" t="s">
+        <v>37</v>
+      </c>
+      <c r="O63">
+        <v>4</v>
+      </c>
+      <c r="P63" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>307</v>
+      </c>
+      <c r="R63" t="s">
+        <v>307</v>
+      </c>
+      <c r="S63">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s">
+        <v>307</v>
+      </c>
+      <c r="U63" t="s">
+        <v>308</v>
+      </c>
+      <c r="V63">
+        <v>5000</v>
+      </c>
+      <c r="W63" t="s">
+        <v>200</v>
+      </c>
+      <c r="X63" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
+      <c r="A64">
+        <v>74</v>
+      </c>
+      <c r="B64" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" t="s">
+        <v>309</v>
+      </c>
+      <c r="D64">
+        <v>2014</v>
+      </c>
+      <c r="E64" t="s">
+        <v>262</v>
+      </c>
+      <c r="F64" t="s">
+        <v>27</v>
+      </c>
+      <c r="G64" t="s">
+        <v>61</v>
+      </c>
+      <c r="H64" t="s">
+        <v>29</v>
+      </c>
+      <c r="I64">
+        <v>524</v>
+      </c>
+      <c r="J64" t="s">
+        <v>45</v>
+      </c>
+      <c r="K64">
+        <v>3907</v>
+      </c>
+      <c r="L64" t="s">
+        <v>52</v>
+      </c>
+      <c r="M64" t="s">
+        <v>34</v>
+      </c>
+      <c r="N64" t="s">
+        <v>63</v>
+      </c>
+      <c r="O64">
+        <v>2</v>
+      </c>
+      <c r="P64" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>311</v>
+      </c>
+      <c r="R64" t="s">
+        <v>311</v>
+      </c>
+      <c r="S64">
+        <v>23</v>
+      </c>
+      <c r="T64" t="s">
+        <v>311</v>
+      </c>
+      <c r="U64" t="s">
+        <v>312</v>
+      </c>
+      <c r="V64">
+        <v>5000</v>
+      </c>
+      <c r="W64" t="s">
+        <v>313</v>
+      </c>
+      <c r="X64" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
+      <c r="A65">
+        <v>75</v>
+      </c>
+      <c r="B65" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" t="s">
+        <v>314</v>
+      </c>
+      <c r="D65">
+        <v>2020</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>27</v>
+      </c>
+      <c r="G65" t="s">
+        <v>44</v>
+      </c>
+      <c r="H65" t="s">
+        <v>29</v>
+      </c>
+      <c r="I65">
+        <v>3325</v>
+      </c>
+      <c r="J65" t="s">
+        <v>45</v>
+      </c>
+      <c r="K65">
+        <v>2393</v>
+      </c>
+      <c r="L65" t="s">
+        <v>46</v>
+      </c>
+      <c r="M65" t="s">
+        <v>34</v>
+      </c>
+      <c r="N65" t="s">
+        <v>37</v>
+      </c>
+      <c r="O65">
+        <v>4</v>
+      </c>
+      <c r="P65" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>316</v>
+      </c>
+      <c r="R65" t="s">
+        <v>316</v>
+      </c>
+      <c r="S65">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s">
+        <v>316</v>
+      </c>
+      <c r="U65" t="s">
+        <v>98</v>
+      </c>
+      <c r="V65">
+        <v>5000</v>
+      </c>
+      <c r="W65" t="s">
+        <v>317</v>
+      </c>
+      <c r="X65" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
+      <c r="A66">
+        <v>76</v>
+      </c>
+      <c r="B66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" t="s">
+        <v>318</v>
+      </c>
+      <c r="D66">
+        <v>2013</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>27</v>
+      </c>
+      <c r="G66" t="s">
+        <v>28</v>
+      </c>
+      <c r="H66" t="s">
+        <v>29</v>
+      </c>
+      <c r="I66">
+        <v>1022</v>
+      </c>
+      <c r="J66" t="s">
+        <v>35</v>
+      </c>
+      <c r="K66">
+        <v>2600</v>
+      </c>
+      <c r="L66" t="s">
+        <v>46</v>
+      </c>
+      <c r="M66" t="s">
+        <v>34</v>
+      </c>
+      <c r="N66" t="s">
+        <v>37</v>
+      </c>
+      <c r="O66">
+        <v>4</v>
+      </c>
+      <c r="P66">
+        <v>12125661563</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>319</v>
+      </c>
+      <c r="R66" t="s">
+        <v>319</v>
+      </c>
+      <c r="S66">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s">
+        <v>319</v>
+      </c>
+      <c r="U66" t="s">
+        <v>320</v>
+      </c>
+      <c r="V66">
+        <v>5000</v>
+      </c>
+      <c r="W66" t="s">
+        <v>133</v>
+      </c>
+      <c r="X66" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
+      <c r="A67">
+        <v>77</v>
+      </c>
+      <c r="B67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" t="s">
+        <v>321</v>
+      </c>
+      <c r="D67">
+        <v>2020</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>27</v>
+      </c>
+      <c r="G67" t="s">
+        <v>44</v>
+      </c>
+      <c r="H67" t="s">
+        <v>29</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67" t="s">
+        <v>45</v>
+      </c>
+      <c r="K67">
+        <v>2393</v>
+      </c>
+      <c r="L67" t="s">
+        <v>46</v>
+      </c>
+      <c r="M67" t="s">
+        <v>34</v>
+      </c>
+      <c r="N67" t="s">
+        <v>37</v>
+      </c>
+      <c r="O67">
+        <v>4</v>
+      </c>
+      <c r="P67" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>323</v>
+      </c>
+      <c r="R67" t="s">
+        <v>323</v>
+      </c>
+      <c r="S67">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s">
+        <v>323</v>
+      </c>
+      <c r="U67" t="s">
+        <v>324</v>
+      </c>
+      <c r="V67">
+        <v>5000</v>
+      </c>
+      <c r="W67" t="s">
+        <v>325</v>
+      </c>
+      <c r="X67" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
+      <c r="A68">
+        <v>78</v>
+      </c>
+      <c r="B68" t="s">
+        <v>182</v>
+      </c>
+      <c r="C68" t="s">
+        <v>326</v>
+      </c>
+      <c r="D68">
+        <v>2016</v>
+      </c>
+      <c r="E68" t="s">
+        <v>277</v>
+      </c>
+      <c r="F68" t="s">
+        <v>27</v>
+      </c>
+      <c r="G68" t="s">
+        <v>278</v>
+      </c>
+      <c r="H68" t="s">
+        <v>29</v>
+      </c>
+      <c r="I68">
+        <v>3015</v>
+      </c>
+      <c r="J68" t="s">
+        <v>45</v>
+      </c>
+      <c r="K68">
+        <v>5123</v>
+      </c>
+      <c r="L68" t="s">
+        <v>146</v>
+      </c>
+      <c r="M68" t="s">
+        <v>34</v>
+      </c>
+      <c r="N68" t="s">
+        <v>63</v>
+      </c>
+      <c r="O68">
+        <v>2</v>
+      </c>
+      <c r="P68" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>328</v>
+      </c>
+      <c r="R68" t="s">
+        <v>328</v>
+      </c>
+      <c r="S68">
+        <v>42</v>
+      </c>
+      <c r="T68" t="s">
+        <v>328</v>
+      </c>
+      <c r="U68" t="s">
+        <v>329</v>
+      </c>
+      <c r="V68">
+        <v>5000</v>
+      </c>
+      <c r="W68" t="s">
+        <v>90</v>
+      </c>
+      <c r="X68" t="s">
         <v>30</v>
       </c>
     </row>
